--- a/biology/Zoologie/Christa_Laetitia_Deeleman-Reinhold/Christa_Laetitia_Deeleman-Reinhold.xlsx
+++ b/biology/Zoologie/Christa_Laetitia_Deeleman-Reinhold/Christa_Laetitia_Deeleman-Reinhold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christa Laetitia Deeleman-Reinhold est une arachnologiste néerlandaise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée de l'université de Leyde en 1978, Christa Laetitia Reinhold est une spécialiste des aranéofaunes d'Asie du Sud-Est et d'Europe du Sud. Mariée avec Paul Robert Deeleman, elle rédige quelques articles avec lui.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deelemania Jocqué &amp; Bosmans, 1983
 Troglohyphantes deelemanae Tanasevitch, 1987
@@ -586,7 +602,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bacillemma Deeleman-Reinhold, 1993
@@ -671,9 +689,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deeleman-Reinhold, 1971 : Beitrag zur Kenntnis höhlenbewohnender Dysderidae (Araneida) aus Jugoslawien. Razprave slovenska akademija znanosti in umetnosti,, vol. 14, p. 95-120.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deeleman-Reinhold, 1971 : Beitrag zur Kenntnis höhlenbewohnender Dysderidae (Araneida) aus Jugoslawien. Razprave slovenska akademija znanosti in umetnosti vol. 14, p. 95-120.
 Deeleman-Reinhold, 1974 : The cave spider fauna of Montenegro (Araneae). Glasnik Republičkog Zavoda za zaštitu prirode i Prirodnjačkog Muzeja, vol. 6, p. 9-33.
 Deeleman-Reinhold, 1978 : Revision of the cave-dwelling and related spiders of the genus Troglohyphantes Joseph (Linyphiidae), with special reference to the Yugoslav species. Academia Scientiarum et Artium Slovenica, Classis IV: Historia Naturalis, Institutum Biologicum Ionnis Hadži, Ljubljana, vol. 23, p. 1-220.
 Deeleman-Reinhold, 1980 : Contribution to the knowledge of the southeast Asian spiders of the families Pacullidae and Tetrablemmidae. Zoologische Mededelingen Leyde, vol. 56, p. 65-82 (texte intégral).
